--- a/進捗.xlsx
+++ b/進捗.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -213,10 +213,12 @@
   </si>
   <si>
     <t>担当者Ａ</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト機能４(予定工数なし)</t>
+  </si>
+  <si>
+    <t>テスト機能５(工数オーバー)</t>
   </si>
 </sst>
 </file>
@@ -496,7 +498,19 @@
     <cellStyle name="入力" xfId="4" builtinId="20"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -528,6 +542,110 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1070,7 +1188,7 @@
       </c>
       <c r="B7" s="12">
         <f>SUM(一覧!G:G)</f>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1079,14 +1197,14 @@
       </c>
       <c r="B8" s="12">
         <f>SUM(一覧!H:H)</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="7">
         <f>B9/B7</f>
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1095,14 +1213,14 @@
       </c>
       <c r="B9" s="12">
         <f>SUM(一覧!J:J)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="7">
         <f>B8/B7</f>
-        <v>0.4</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="F9" s="16" t="str">
         <f>IF(E8&lt;E9, "注意", "")</f>
@@ -1273,7 +1391,7 @@
         <v>50</v>
       </c>
       <c r="J4" s="13">
-        <f>IF(I4 &lt;&gt; "", G4*I4/100, "")</f>
+        <f t="shared" ref="J4:J6" si="0">IF(AND(G4 &lt;&gt;"", I4 &lt;&gt; ""), G4*I4/100, "")</f>
         <v>10</v>
       </c>
     </row>
@@ -1315,7 +1433,7 @@
         <v>100</v>
       </c>
       <c r="J5" s="13">
-        <f t="shared" ref="J5:J58" si="0">IF(I5 &lt;&gt; "", G5*I5/100, "")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1362,87 +1480,87 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3" t="str">
+      <c r="A7" s="3">
         <f>IF(データ!A5 &lt;&gt; "", データ!A5, "")</f>
-        <v/>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>IF(データ!G5 &lt;&gt; "", データ!G5, "")</f>
-        <v/>
+        <v>テスト機能４(予定工数なし)</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>IF(データ!I5 &lt;&gt; "", データ!I5, "")</f>
-        <v/>
-      </c>
-      <c r="D7" s="4" t="str">
+        <v>担当者Ａ</v>
+      </c>
+      <c r="D7" s="4">
         <f>IF(データ!M5 &lt;&gt; "", データ!M5, "")</f>
-        <v/>
-      </c>
-      <c r="E7" s="4" t="str">
+        <v>41633</v>
+      </c>
+      <c r="E7" s="4">
         <f>IF(データ!N5 &lt;&gt; "", データ!N5, "")</f>
-        <v/>
+        <v>41637</v>
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(データ!E5 &lt;&gt; "", データ!E5, "")</f>
-        <v/>
+        <v>新規</v>
       </c>
       <c r="G7" s="3" t="str">
         <f>IF(データ!O5 &lt;&gt; "", データ!O5, "")</f>
         <v/>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="3">
         <f>IF(データ!P5 &lt;&gt; "", データ!P5, "")</f>
-        <v/>
-      </c>
-      <c r="I7" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <f>IF(データ!Q5 &lt;&gt; "", データ!Q5, "")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J7" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G7 &lt;&gt;"", I7 &lt;&gt; ""), G7*I7/100, "")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="str">
+      <c r="A8" s="3">
         <f>IF(データ!A6 &lt;&gt; "", データ!A6, "")</f>
-        <v/>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>IF(データ!G6 &lt;&gt; "", データ!G6, "")</f>
-        <v/>
+        <v>テスト機能５(工数オーバー)</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>IF(データ!I6 &lt;&gt; "", データ!I6, "")</f>
-        <v/>
-      </c>
-      <c r="D8" s="4" t="str">
+        <v>担当者Ａ</v>
+      </c>
+      <c r="D8" s="4">
         <f>IF(データ!M6 &lt;&gt; "", データ!M6, "")</f>
-        <v/>
-      </c>
-      <c r="E8" s="4" t="str">
+        <v>41598</v>
+      </c>
+      <c r="E8" s="4">
         <f>IF(データ!N6 &lt;&gt; "", データ!N6, "")</f>
-        <v/>
+        <v>41604</v>
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(データ!E6 &lt;&gt; "", データ!E6, "")</f>
-        <v/>
-      </c>
-      <c r="G8" s="3" t="str">
+        <v>終了</v>
+      </c>
+      <c r="G8" s="3">
         <f>IF(データ!O6 &lt;&gt; "", データ!O6, "")</f>
-        <v/>
-      </c>
-      <c r="H8" s="3" t="str">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
         <f>IF(データ!P6 &lt;&gt; "", データ!P6, "")</f>
-        <v/>
-      </c>
-      <c r="I8" s="3" t="str">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3">
         <f>IF(データ!Q6 &lt;&gt; "", データ!Q6, "")</f>
-        <v/>
-      </c>
-      <c r="J8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>100</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" ref="J8:J71" si="1">IF(AND(G8 &lt;&gt;"", I8 &lt;&gt; ""), G8*I8/100, "")</f>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1483,7 +1601,7 @@
         <v/>
       </c>
       <c r="J9" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1525,7 +1643,7 @@
         <v/>
       </c>
       <c r="J10" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1567,7 +1685,7 @@
         <v/>
       </c>
       <c r="J11" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1609,7 +1727,7 @@
         <v/>
       </c>
       <c r="J12" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1651,7 +1769,7 @@
         <v/>
       </c>
       <c r="J13" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1693,7 +1811,7 @@
         <v/>
       </c>
       <c r="J14" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1735,7 +1853,7 @@
         <v/>
       </c>
       <c r="J15" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1777,7 +1895,7 @@
         <v/>
       </c>
       <c r="J16" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1819,7 +1937,7 @@
         <v/>
       </c>
       <c r="J17" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1861,7 +1979,7 @@
         <v/>
       </c>
       <c r="J18" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1903,7 +2021,7 @@
         <v/>
       </c>
       <c r="J19" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1945,7 +2063,7 @@
         <v/>
       </c>
       <c r="J20" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1987,7 +2105,7 @@
         <v/>
       </c>
       <c r="J21" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2029,7 +2147,7 @@
         <v/>
       </c>
       <c r="J22" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2071,7 +2189,7 @@
         <v/>
       </c>
       <c r="J23" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2113,7 +2231,7 @@
         <v/>
       </c>
       <c r="J24" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2155,7 +2273,7 @@
         <v/>
       </c>
       <c r="J25" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2197,7 +2315,7 @@
         <v/>
       </c>
       <c r="J26" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2239,7 +2357,7 @@
         <v/>
       </c>
       <c r="J27" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2281,7 +2399,7 @@
         <v/>
       </c>
       <c r="J28" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2323,7 +2441,7 @@
         <v/>
       </c>
       <c r="J29" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2365,7 +2483,7 @@
         <v/>
       </c>
       <c r="J30" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2407,7 +2525,7 @@
         <v/>
       </c>
       <c r="J31" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2449,7 +2567,7 @@
         <v/>
       </c>
       <c r="J32" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2491,7 +2609,7 @@
         <v/>
       </c>
       <c r="J33" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2533,7 +2651,7 @@
         <v/>
       </c>
       <c r="J34" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2575,7 +2693,7 @@
         <v/>
       </c>
       <c r="J35" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2617,7 +2735,7 @@
         <v/>
       </c>
       <c r="J36" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2659,7 +2777,7 @@
         <v/>
       </c>
       <c r="J37" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2701,7 +2819,7 @@
         <v/>
       </c>
       <c r="J38" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2743,7 +2861,7 @@
         <v/>
       </c>
       <c r="J39" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2785,7 +2903,7 @@
         <v/>
       </c>
       <c r="J40" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2827,7 +2945,7 @@
         <v/>
       </c>
       <c r="J41" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2869,7 +2987,7 @@
         <v/>
       </c>
       <c r="J42" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2911,7 +3029,7 @@
         <v/>
       </c>
       <c r="J43" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2953,7 +3071,7 @@
         <v/>
       </c>
       <c r="J44" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2995,7 +3113,7 @@
         <v/>
       </c>
       <c r="J45" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3037,7 +3155,7 @@
         <v/>
       </c>
       <c r="J46" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3079,7 +3197,7 @@
         <v/>
       </c>
       <c r="J47" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3121,7 +3239,7 @@
         <v/>
       </c>
       <c r="J48" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3163,7 +3281,7 @@
         <v/>
       </c>
       <c r="J49" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3205,7 +3323,7 @@
         <v/>
       </c>
       <c r="J50" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3247,7 +3365,7 @@
         <v/>
       </c>
       <c r="J51" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3289,7 +3407,7 @@
         <v/>
       </c>
       <c r="J52" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3331,7 +3449,7 @@
         <v/>
       </c>
       <c r="J53" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3373,7 +3491,7 @@
         <v/>
       </c>
       <c r="J54" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3415,7 +3533,7 @@
         <v/>
       </c>
       <c r="J55" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3457,7 +3575,7 @@
         <v/>
       </c>
       <c r="J56" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3499,7 +3617,7 @@
         <v/>
       </c>
       <c r="J57" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3541,7 +3659,7 @@
         <v/>
       </c>
       <c r="J58" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3583,7 +3701,7 @@
         <v/>
       </c>
       <c r="J59" s="13" t="str">
-        <f t="shared" ref="J59:J76" si="1">IF(I59 &lt;&gt; "", G59*I59/100, "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4129,7 +4247,7 @@
         <v/>
       </c>
       <c r="J72" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J72:J76" si="2">IF(AND(G72 &lt;&gt;"", I72 &lt;&gt; ""), G72*I72/100, "")</f>
         <v/>
       </c>
     </row>
@@ -4171,7 +4289,7 @@
         <v/>
       </c>
       <c r="J73" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4213,7 +4331,7 @@
         <v/>
       </c>
       <c r="J74" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4255,7 +4373,7 @@
         <v/>
       </c>
       <c r="J75" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4297,25 +4415,30 @@
         <v/>
       </c>
       <c r="J76" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D4:D58">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>AND($D4 &lt; $D$1, $I4 = 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:D76">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND($D59 &lt; $D$1, OFFSET($D59, 0, I59) = 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E76">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND($D$1 &gt; $E4, $I4 &lt; 100)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H76">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$G4 &lt; $H4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4328,7 +4451,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4552,6 +4675,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1">
+        <v>41612.979166666664</v>
+      </c>
+      <c r="M5" s="2">
+        <v>41633</v>
+      </c>
+      <c r="N5" s="2">
+        <v>41637</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>41612.975694444445</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1">
+        <v>41612.980555555558</v>
+      </c>
+      <c r="M6" s="2">
+        <v>41598</v>
+      </c>
+      <c r="N6" s="2">
+        <v>41604</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6" s="1">
+        <v>41612.980555555558</v>
+      </c>
+      <c r="S6" s="1">
+        <v>41612.980555555558</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
